--- a/raspagem/empresa-ticker-arrumado.xlsx
+++ b/raspagem/empresa-ticker-arrumado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Héron H. Oliveira\Desktop\NEO\Obtendo dados financeiros\Obtendo dados financeiros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heron\Desktop\Dados-bolsa\Dados-bolsa\raspagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F50423-15C9-4FFE-A5DC-8E0FFDDE132B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27ED6E5-B0F8-4430-96FB-0F5B703B3F4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B6FA0A4C-8746-4D97-B585-500A1BE8101F}"/>
   </bookViews>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -101,9 +90,6 @@
     <t>DXCO3</t>
   </si>
   <si>
-    <t>CMIG3 </t>
-  </si>
-  <si>
     <t>PARD3</t>
   </si>
   <si>
@@ -159,6 +145,9 @@
   </si>
   <si>
     <t>ticker</t>
+  </si>
+  <si>
+    <t>CMIG3</t>
   </si>
 </sst>
 </file>
@@ -534,7 +523,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -565,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -573,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -581,7 +570,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -597,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,7 +602,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -621,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -629,7 +618,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -637,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -645,7 +634,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,7 +642,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +650,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -669,7 +658,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -677,7 +666,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,7 +674,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -701,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -709,7 +698,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
